--- a/PentestingReport_Himanshu.xlsx
+++ b/PentestingReport_Himanshu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himanshu\Desktop\KPMG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -863,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -976,6 +976,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,23 +1017,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1200,6 +1203,201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149681</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>334016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4708073</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2796749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25527002" y="4906016"/>
+          <a:ext cx="4558392" cy="2462733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>582345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4857751</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>870856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25445358" y="8283988"/>
+          <a:ext cx="4789714" cy="288511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1306285</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3769178</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26683606" y="9307285"/>
+          <a:ext cx="2462893" cy="1181439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>830036</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4095751</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2615372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26207357" y="10613571"/>
+          <a:ext cx="3265715" cy="2479301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4585608</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2617274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25540607" y="19689536"/>
+          <a:ext cx="4422322" cy="2562845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1473,540 +1671,540 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="40">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="41"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="52"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="42"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="55"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="40">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="49"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="41"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="48"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="42"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="40">
+      <c r="A9" s="44">
         <v>3</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="49"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="41"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="48"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="42"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="51"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="55"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="40">
+      <c r="A12" s="44">
         <v>4</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="45"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="49"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="41"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="48"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="42"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="51"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="55"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="40">
+      <c r="A15" s="44">
         <v>5</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="45"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="49"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="41"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="48"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="52"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="42"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="51"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="55"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="40">
+      <c r="A18" s="44">
         <v>6</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="45"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="49"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="41"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="48"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="52"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="42"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="51"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="55"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A21" s="40">
+      <c r="A21" s="44">
         <v>7</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="45"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="49"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="48"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="52"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="51"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="55"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:20" ht="15.75" customHeight="1"/>
@@ -2087,13 +2285,6 @@
     <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:T11"/>
-    <mergeCell ref="A1:T2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:T5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:T8"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:T23"/>
     <mergeCell ref="B12:T14"/>
@@ -2102,6 +2293,13 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:T20"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:T11"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:T5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:T8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2126,51 +2324,51 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="3:6" ht="63" customHeight="1">
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="3:6" ht="63" customHeight="1">
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
     </row>
     <row r="7" spans="3:6" ht="63" customHeight="1">
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="3:6" ht="63" customHeight="1">
       <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2269,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2282,15 +2480,15 @@
     <col min="5" max="5" width="35.140625" customWidth="1"/>
     <col min="6" max="6" width="76" customWidth="1"/>
     <col min="7" max="7" width="60.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1"/>
+    <col min="8" max="8" width="73.140625" customWidth="1"/>
     <col min="9" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2306,8 +2504,8 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
@@ -2323,8 +2521,8 @@
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
@@ -2340,8 +2538,8 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
@@ -2357,8 +2555,8 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
@@ -2374,8 +2572,8 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2392,14 +2590,14 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2440,7 +2638,7 @@
       <c r="B9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -2479,7 +2677,7 @@
       <c r="F10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="41" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="29"/>
@@ -2506,7 +2704,7 @@
       <c r="F11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="43" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="29"/>
@@ -2533,7 +2731,7 @@
       <c r="F12" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H12" s="30"/>
@@ -2541,7 +2739,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" ht="69.75" customHeight="1">
+    <row r="13" spans="1:11" ht="215.25" customHeight="1">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -2587,7 +2785,7 @@
       <c r="F14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="42" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="30"/>
@@ -2638,10 +2836,10 @@
       <c r="E16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="42" t="s">
         <v>72</v>
       </c>
       <c r="H16" s="30"/>
@@ -2699,7 +2897,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
     </row>
-    <row r="19" spans="1:11" ht="75.75" customHeight="1">
+    <row r="19" spans="1:11" ht="210.75" customHeight="1">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -2718,7 +2916,7 @@
       <c r="F19" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="65" t="s">
         <v>79</v>
       </c>
       <c r="H19" s="30"/>
@@ -3822,8 +4020,12 @@
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
     <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="G12" r:id="rId3"/>
+    <hyperlink ref="G16" r:id="rId4"/>
+    <hyperlink ref="G19" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>